--- a/Sharpe das Estratégias/s5.xlsx
+++ b/Sharpe das Estratégias/s5.xlsx
@@ -1,21 +1,236 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takes\Documents\Insper\Data\Projeto Fin\GitHub\Data_Fin_2021.1\Sharpe das Estratégias\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4077DE-ED37-434D-8F2E-7DA0EC2C5940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+  <si>
+    <t>PETR4 BS Equity</t>
+  </si>
+  <si>
+    <t>VALE3 BS Equity</t>
+  </si>
+  <si>
+    <t>BBDC4 BS Equity</t>
+  </si>
+  <si>
+    <t>ITUB4 BS Equity</t>
+  </si>
+  <si>
+    <t>MGLU3 BS Equity</t>
+  </si>
+  <si>
+    <t>B3SA3 BS Equity</t>
+  </si>
+  <si>
+    <t>VVAR3 BS Equity</t>
+  </si>
+  <si>
+    <t>JBSS3 BS Equity</t>
+  </si>
+  <si>
+    <t>ABEV3 BS Equity</t>
+  </si>
+  <si>
+    <t>^BVSP</t>
+  </si>
+  <si>
+    <t>abev3</t>
+  </si>
+  <si>
+    <t>ações</t>
+  </si>
+  <si>
+    <t>alimentos</t>
+  </si>
+  <si>
+    <t>ambev</t>
+  </si>
+  <si>
+    <t>b3</t>
+  </si>
+  <si>
+    <t>bacen</t>
+  </si>
+  <si>
+    <t>banco</t>
+  </si>
+  <si>
+    <t>bbdc4</t>
+  </si>
+  <si>
+    <t>bitcoin</t>
+  </si>
+  <si>
+    <t>bolsa</t>
+  </si>
+  <si>
+    <t>bradesco</t>
+  </si>
+  <si>
+    <t>bvsp</t>
+  </si>
+  <si>
+    <t>cerveja</t>
+  </si>
+  <si>
+    <t>commodity</t>
+  </si>
+  <si>
+    <t>cor</t>
+  </si>
+  <si>
+    <t>corretora</t>
+  </si>
+  <si>
+    <t>credito</t>
+  </si>
+  <si>
+    <t>crise</t>
+  </si>
+  <si>
+    <t>derivativos</t>
+  </si>
+  <si>
+    <t>desemprego</t>
+  </si>
+  <si>
+    <t>dinheiro</t>
+  </si>
+  <si>
+    <t>divida</t>
+  </si>
+  <si>
+    <t>dividendos</t>
+  </si>
+  <si>
+    <t>dolar</t>
+  </si>
+  <si>
+    <t>economia</t>
+  </si>
+  <si>
+    <t>empresa</t>
+  </si>
+  <si>
+    <t>estagio</t>
+  </si>
+  <si>
+    <t>ferro</t>
+  </si>
+  <si>
+    <t>financas</t>
+  </si>
+  <si>
+    <t>fundos</t>
+  </si>
+  <si>
+    <t>gado</t>
+  </si>
+  <si>
+    <t>gasolina</t>
+  </si>
+  <si>
+    <t>ibovespa</t>
+  </si>
+  <si>
+    <t>inflacao</t>
+  </si>
+  <si>
+    <t>investimento</t>
+  </si>
+  <si>
+    <t>investir</t>
+  </si>
+  <si>
+    <t>itau</t>
+  </si>
+  <si>
+    <t>itub4</t>
+  </si>
+  <si>
+    <t>jbs</t>
+  </si>
+  <si>
+    <t>jbss3</t>
+  </si>
+  <si>
+    <t>magazine</t>
+  </si>
+  <si>
+    <t>mercado</t>
+  </si>
+  <si>
+    <t>mglu3</t>
+  </si>
+  <si>
+    <t>mineraca</t>
+  </si>
+  <si>
+    <t>petr4</t>
+  </si>
+  <si>
+    <t>petrobras</t>
+  </si>
+  <si>
+    <t>petroleo</t>
+  </si>
+  <si>
+    <t>politica</t>
+  </si>
+  <si>
+    <t>portifolio</t>
+  </si>
+  <si>
+    <t>renda</t>
+  </si>
+  <si>
+    <t>restaurante</t>
+  </si>
+  <si>
+    <t>selic</t>
+  </si>
+  <si>
+    <t>titulos</t>
+  </si>
+  <si>
+    <t>vale</t>
+  </si>
+  <si>
+    <t>vale3</t>
+  </si>
+  <si>
+    <t>viajar</t>
+  </si>
+  <si>
+    <t>vvar3</t>
+  </si>
+  <si>
+    <t>xp</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -24,12 +239,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -40,7 +253,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -49,17 +262,30 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
@@ -67,10 +293,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -78,6 +307,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -124,7 +361,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -156,9 +393,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -190,6 +445,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -365,342 +638,344 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:BG1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:59">
-      <c r="B1" s="1">
+    <row r="1" spans="1:59" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1">
-        <v>46</v>
-      </c>
-      <c r="AW1" s="1">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="1">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="1">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="1">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="1">
-        <v>51</v>
-      </c>
-      <c r="BB1" s="1">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="1">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="1">
-        <v>54</v>
-      </c>
-      <c r="BE1" s="1">
-        <v>55</v>
-      </c>
-      <c r="BF1" s="1">
-        <v>56</v>
-      </c>
-      <c r="BG1" s="1">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:59">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
       <c r="B2">
-        <v>0.7288831015767425</v>
+        <v>0.72888310157674252</v>
       </c>
       <c r="C2">
-        <v>0.2797446777482516</v>
+        <v>0.27974467774825162</v>
       </c>
       <c r="D2">
         <v>0.5447142564129781</v>
       </c>
       <c r="E2">
-        <v>-0.1882966605647219</v>
+        <v>-0.18829666056472191</v>
       </c>
       <c r="F2">
-        <v>0.3128901459448499</v>
+        <v>0.31289014594484987</v>
       </c>
       <c r="G2">
         <v>0.3371449164815456</v>
       </c>
       <c r="H2">
-        <v>0.8861585430481622</v>
+        <v>0.88615854304816222</v>
       </c>
       <c r="I2">
-        <v>0.5480511187811407</v>
+        <v>0.54805111878114066</v>
       </c>
       <c r="J2">
-        <v>0.5588807711610886</v>
+        <v>0.55888077116108859</v>
       </c>
       <c r="K2">
-        <v>0.00989759127161664</v>
+        <v>9.8975912716166396E-3</v>
       </c>
       <c r="L2">
-        <v>0.8651203518969611</v>
+        <v>0.86512035189696113</v>
       </c>
       <c r="M2">
-        <v>0.5064604237036083</v>
+        <v>0.50646042370360833</v>
       </c>
       <c r="N2">
-        <v>0.9000751411218407</v>
+        <v>0.90007514112184073</v>
       </c>
       <c r="O2">
-        <v>0.2496110115262506</v>
+        <v>0.24961101152625059</v>
       </c>
       <c r="P2">
         <v>0.8949496202874847</v>
       </c>
       <c r="Q2">
-        <v>0.5436196615744134</v>
+        <v>0.54361966157441344</v>
       </c>
       <c r="R2">
-        <v>0.1606863922638747</v>
+        <v>0.16068639226387471</v>
       </c>
       <c r="S2">
-        <v>0.5727321924378191</v>
+        <v>0.57273219243781914</v>
       </c>
       <c r="T2">
-        <v>0.5984807157013879</v>
+        <v>0.59848071570138794</v>
       </c>
       <c r="U2">
-        <v>0.5857739577179064</v>
+        <v>0.58577395771790641</v>
       </c>
       <c r="V2">
-        <v>0.3923566499589193</v>
+        <v>0.39235664995891928</v>
       </c>
       <c r="W2">
         <v>0.1703513463658354</v>
       </c>
       <c r="X2">
-        <v>0.7020305143662531</v>
+        <v>0.70203051436625308</v>
       </c>
       <c r="Y2">
-        <v>0.3502742374837498</v>
+        <v>0.35027423748374981</v>
       </c>
       <c r="Z2">
-        <v>0.6303888955651296</v>
+        <v>0.63038889556512956</v>
       </c>
       <c r="AA2">
         <v>0.1170584173474402</v>
       </c>
       <c r="AB2">
-        <v>0.4082873797903971</v>
+        <v>0.40828737979039709</v>
       </c>
       <c r="AC2">
-        <v>0.8125349521942647</v>
+        <v>0.81253495219426475</v>
       </c>
       <c r="AD2">
-        <v>0.4510663188412405</v>
+        <v>0.45106631884124049</v>
       </c>
       <c r="AE2">
-        <v>0.8291158440121</v>
+        <v>0.82911584401210003</v>
       </c>
       <c r="AF2">
-        <v>0.9527175763303622</v>
+        <v>0.95271757633036225</v>
       </c>
       <c r="AG2">
-        <v>0.2209546618369237</v>
+        <v>0.22095466183692369</v>
       </c>
       <c r="AH2">
-        <v>0.5753688278019025</v>
+        <v>0.57536882780190246</v>
       </c>
       <c r="AI2">
-        <v>-0.06576646549227697</v>
+        <v>-6.5766465492276965E-2</v>
       </c>
       <c r="AJ2">
-        <v>0.4297523720112265</v>
+        <v>0.42975237201122651</v>
       </c>
       <c r="AK2">
-        <v>0.5109893293042259</v>
+        <v>0.51098932930422591</v>
       </c>
       <c r="AL2">
-        <v>0.7021525145978327</v>
+        <v>0.70215251459783268</v>
       </c>
       <c r="AM2">
-        <v>-0.03699257310213803</v>
+        <v>-3.6992573102138028E-2</v>
       </c>
       <c r="AN2">
         <v>-0.1014437521723433</v>
       </c>
       <c r="AO2">
-        <v>-0.1718573429916271</v>
+        <v>-0.17185734299162711</v>
       </c>
       <c r="AP2">
-        <v>0.4175451567426421</v>
+        <v>0.41754515674264209</v>
       </c>
       <c r="AQ2">
-        <v>1.062623889300505</v>
+        <v>1.0626238893005051</v>
       </c>
       <c r="AR2">
-        <v>0.571474371175045</v>
+        <v>0.57147437117504496</v>
       </c>
       <c r="AS2">
-        <v>-0.09517379351080781</v>
+        <v>-9.5173793510807805E-2</v>
       </c>
       <c r="AT2">
-        <v>0.393325227806933</v>
+        <v>0.39332522780693302</v>
       </c>
       <c r="AU2">
-        <v>0.323668486243244</v>
+        <v>0.32366848624324401</v>
       </c>
       <c r="AV2">
-        <v>0.4594763571804665</v>
+        <v>0.45947635718046648</v>
       </c>
       <c r="AW2">
         <v>0.6667606926919728</v>
       </c>
       <c r="AX2">
-        <v>0.4727074012251539</v>
+        <v>0.47270740122515392</v>
       </c>
       <c r="AY2">
-        <v>0.190800637435749</v>
+        <v>0.19080063743574899</v>
       </c>
       <c r="AZ2">
         <v>0.3943367674937247</v>
@@ -709,75 +984,75 @@
         <v>0.1473265586032162</v>
       </c>
       <c r="BB2">
-        <v>0.3193862805005432</v>
+        <v>0.31938628050054318</v>
       </c>
       <c r="BC2">
-        <v>0.478445663007065</v>
+        <v>0.47844566300706498</v>
       </c>
       <c r="BD2">
-        <v>0.7292644138411938</v>
+        <v>0.72926441384119378</v>
       </c>
       <c r="BE2">
-        <v>0.3575337694666391</v>
+        <v>0.35753376946663912</v>
       </c>
       <c r="BF2">
-        <v>0.1837834881562948</v>
+        <v>0.18378348815629481</v>
       </c>
       <c r="BG2">
-        <v>0.3086743164660274</v>
+        <v>0.30867431646602739</v>
       </c>
     </row>
-    <row r="3" spans="1:59">
-      <c r="A3" s="1">
+    <row r="3" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8124607592701708</v>
+        <v>0.81246075927017081</v>
       </c>
       <c r="C3">
-        <v>0.8911893880221521</v>
+        <v>0.89118938802215208</v>
       </c>
       <c r="D3">
-        <v>0.6714074836548642</v>
+        <v>0.67140748365486425</v>
       </c>
       <c r="E3">
-        <v>0.4177095594688839</v>
+        <v>0.41770955946888388</v>
       </c>
       <c r="F3">
-        <v>1.157081321389878</v>
+        <v>1.1570813213898781</v>
       </c>
       <c r="G3">
-        <v>1.027735296631738</v>
+        <v>1.0277352966317379</v>
       </c>
       <c r="H3">
-        <v>0.9524794374873741</v>
+        <v>0.95247943748737407</v>
       </c>
       <c r="I3">
-        <v>0.9352686766819613</v>
+        <v>0.93526867668196134</v>
       </c>
       <c r="J3">
-        <v>0.6765692098702958</v>
+        <v>0.67656920987029578</v>
       </c>
       <c r="K3">
         <v>0.793775769201716</v>
       </c>
       <c r="L3">
-        <v>0.548184656895729</v>
+        <v>0.54818465689572904</v>
       </c>
       <c r="M3">
-        <v>0.8319853425174906</v>
+        <v>0.83198534251749057</v>
       </c>
       <c r="N3">
-        <v>0.740727947555241</v>
+        <v>0.74072794755524096</v>
       </c>
       <c r="O3">
-        <v>0.1985280627469415</v>
+        <v>0.19852806274694151</v>
       </c>
       <c r="P3">
-        <v>1.120248779075626</v>
+        <v>1.1202487790756259</v>
       </c>
       <c r="Q3">
-        <v>1.400749989225124</v>
+        <v>1.4007499892251241</v>
       </c>
       <c r="R3">
         <v>1.356662750160744</v>
@@ -786,7 +1061,7 @@
         <v>1.449320103863579</v>
       </c>
       <c r="T3">
-        <v>0.613588574813236</v>
+        <v>0.61358857481323603</v>
       </c>
       <c r="U3">
         <v>1.048870600798945</v>
@@ -801,7 +1076,7 @@
         <v>1.18779611403629</v>
       </c>
       <c r="Y3">
-        <v>0.8746240279523645</v>
+        <v>0.87462402795236449</v>
       </c>
       <c r="Z3">
         <v>1.112061476269437</v>
@@ -810,46 +1085,46 @@
         <v>0.3026634779044638</v>
       </c>
       <c r="AB3">
-        <v>0.2789734059099669</v>
+        <v>0.27897340590996689</v>
       </c>
       <c r="AC3">
         <v>1.470648355022542</v>
       </c>
       <c r="AD3">
-        <v>0.9630247850727094</v>
+        <v>0.96302478507270939</v>
       </c>
       <c r="AE3">
         <v>1.176617889587485</v>
       </c>
       <c r="AF3">
-        <v>1.158873248314377</v>
+        <v>1.1588732483143771</v>
       </c>
       <c r="AG3">
-        <v>0.5001924241625976</v>
+        <v>0.50019242416259757</v>
       </c>
       <c r="AH3">
-        <v>0.8694448168479948</v>
+        <v>0.86944481684799479</v>
       </c>
       <c r="AI3">
-        <v>0.3195323385582908</v>
+        <v>0.31953233855829077</v>
       </c>
       <c r="AJ3">
         <v>0.591796409302211</v>
       </c>
       <c r="AK3">
-        <v>0.8685375648462808</v>
+        <v>0.86853756484628075</v>
       </c>
       <c r="AL3">
         <v>0.3582692610115486</v>
       </c>
       <c r="AM3">
-        <v>0.9040419276978116</v>
+        <v>0.90404192769781155</v>
       </c>
       <c r="AN3">
-        <v>0.3484943261395761</v>
+        <v>0.34849432613957609</v>
       </c>
       <c r="AO3">
-        <v>0.5203359184818105</v>
+        <v>0.52033591848181049</v>
       </c>
       <c r="AP3">
         <v>1.060096666720294</v>
@@ -858,93 +1133,93 @@
         <v>1.363299200241282</v>
       </c>
       <c r="AR3">
-        <v>1.13322449483586</v>
+        <v>1.1332244948358601</v>
       </c>
       <c r="AS3">
-        <v>0.801915492900466</v>
+        <v>0.80191549290046604</v>
       </c>
       <c r="AT3">
-        <v>0.8826656053431574</v>
+        <v>0.88266560534315741</v>
       </c>
       <c r="AU3">
-        <v>0.9635227063899136</v>
+        <v>0.96352270638991355</v>
       </c>
       <c r="AV3">
-        <v>0.5557001533134991</v>
+        <v>0.55570015331349909</v>
       </c>
       <c r="AW3">
-        <v>0.677882278395449</v>
+        <v>0.67788227839544901</v>
       </c>
       <c r="AX3">
         <v>1.101030904992425</v>
       </c>
       <c r="AY3">
-        <v>0.5614860488814044</v>
+        <v>0.56148604888140441</v>
       </c>
       <c r="AZ3">
         <v>0.6042898721593889</v>
       </c>
       <c r="BA3">
-        <v>0.3341024480266483</v>
+        <v>0.33410244802664829</v>
       </c>
       <c r="BB3">
-        <v>0.7071929876489977</v>
+        <v>0.70719298764899774</v>
       </c>
       <c r="BC3">
-        <v>0.5571003429827904</v>
+        <v>0.55710034298279043</v>
       </c>
       <c r="BD3">
-        <v>0.9634106676653111</v>
+        <v>0.96341066766531114</v>
       </c>
       <c r="BE3">
-        <v>0.3534121066989671</v>
+        <v>0.35341210669896711</v>
       </c>
       <c r="BF3">
-        <v>0.4339801509203099</v>
+        <v>0.43398015092030989</v>
       </c>
       <c r="BG3">
         <v>0.3859105617994899</v>
       </c>
     </row>
-    <row r="4" spans="1:59">
-      <c r="A4" s="1">
+    <row r="4" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.02539067279431573</v>
+        <v>-2.5390672794315731E-2</v>
       </c>
       <c r="C4">
-        <v>-0.210064491557428</v>
+        <v>-0.21006449155742801</v>
       </c>
       <c r="D4">
-        <v>-0.4467059432345165</v>
+        <v>-0.44670594323451651</v>
       </c>
       <c r="E4">
-        <v>-0.9508332615733278</v>
+        <v>-0.95083326157332781</v>
       </c>
       <c r="F4">
-        <v>0.03707569544466907</v>
+        <v>3.7075695444669071E-2</v>
       </c>
       <c r="G4">
-        <v>-0.4162068105956125</v>
+        <v>-0.41620681059561249</v>
       </c>
       <c r="H4">
-        <v>0.32281055811895</v>
+        <v>0.32281055811894999</v>
       </c>
       <c r="I4">
-        <v>0.07482033303427081</v>
+        <v>7.4820333034270811E-2</v>
       </c>
       <c r="J4">
-        <v>-0.01885308199622301</v>
+        <v>-1.8853081996223011E-2</v>
       </c>
       <c r="K4">
         <v>-0.4154827666563638</v>
       </c>
       <c r="L4">
-        <v>0.3340248231913304</v>
+        <v>0.33402482319133042</v>
       </c>
       <c r="M4">
-        <v>-0.224677254016155</v>
+        <v>-0.22467725401615499</v>
       </c>
       <c r="N4">
         <v>0.5825862000809906</v>
@@ -956,144 +1231,144 @@
         <v>0.4719548410833676</v>
       </c>
       <c r="Q4">
-        <v>0.3139015142556206</v>
+        <v>0.31390151425562057</v>
       </c>
       <c r="R4">
-        <v>-0.2182376898297836</v>
+        <v>-0.21823768982978359</v>
       </c>
       <c r="S4">
-        <v>0.01659208228370228</v>
+        <v>1.6592082283702281E-2</v>
       </c>
       <c r="T4">
-        <v>0.2704085635627331</v>
+        <v>0.27040856356273307</v>
       </c>
       <c r="U4">
         <v>-0.1320134034239841</v>
       </c>
       <c r="V4">
-        <v>0.1036616254975987</v>
+        <v>0.10366162549759871</v>
       </c>
       <c r="W4">
-        <v>0.06898585166378736</v>
+        <v>6.8985851663787359E-2</v>
       </c>
       <c r="X4">
-        <v>0.127581751425332</v>
+        <v>0.12758175142533201</v>
       </c>
       <c r="Y4">
-        <v>-0.08058388409799598</v>
+        <v>-8.0583884097995981E-2</v>
       </c>
       <c r="Z4">
-        <v>-0.05045211030539938</v>
+        <v>-5.0452110305399381E-2</v>
       </c>
       <c r="AA4">
-        <v>-0.2787817649389652</v>
+        <v>-0.27878176493896523</v>
       </c>
       <c r="AB4">
-        <v>-0.1273545777000651</v>
+        <v>-0.12735457770006511</v>
       </c>
       <c r="AC4">
-        <v>0.7286606777128217</v>
+        <v>0.72866067771282172</v>
       </c>
       <c r="AD4">
-        <v>0.305754620303295</v>
+        <v>0.30575462030329498</v>
       </c>
       <c r="AE4">
-        <v>0.2507543592315531</v>
+        <v>0.25075435923155309</v>
       </c>
       <c r="AF4">
-        <v>0.457137390016057</v>
+        <v>0.45713739001605702</v>
       </c>
       <c r="AG4">
-        <v>0.2229507800057866</v>
+        <v>0.22295078000578661</v>
       </c>
       <c r="AH4">
-        <v>0.177125203898291</v>
+        <v>0.17712520389829101</v>
       </c>
       <c r="AI4">
-        <v>-0.2784625925596622</v>
+        <v>-0.27846259255966221</v>
       </c>
       <c r="AJ4">
-        <v>-0.02660644166637997</v>
+        <v>-2.660644166637997E-2</v>
       </c>
       <c r="AK4">
-        <v>0.05525076754513641</v>
+        <v>5.5250767545136407E-2</v>
       </c>
       <c r="AL4">
-        <v>0.2215569814793718</v>
+        <v>0.22155698147937181</v>
       </c>
       <c r="AM4">
-        <v>-0.4746233869386471</v>
+        <v>-0.47462338693864708</v>
       </c>
       <c r="AN4">
-        <v>-0.253758258137377</v>
+        <v>-0.25375825813737701</v>
       </c>
       <c r="AO4">
-        <v>-0.4059676633518404</v>
+        <v>-0.40596766335184042</v>
       </c>
       <c r="AP4">
-        <v>-0.06361812484205538</v>
+        <v>-6.3618124842055382E-2</v>
       </c>
       <c r="AQ4">
-        <v>0.6758502984772399</v>
+        <v>0.67585029847723987</v>
       </c>
       <c r="AR4">
-        <v>0.3306906407453311</v>
+        <v>0.33069064074533111</v>
       </c>
       <c r="AS4">
-        <v>-0.3983142387466664</v>
+        <v>-0.39831423874666638</v>
       </c>
       <c r="AT4">
-        <v>0.109698981885641</v>
+        <v>0.10969898188564101</v>
       </c>
       <c r="AU4">
-        <v>-0.2203501687503278</v>
+        <v>-0.22035016875032781</v>
       </c>
       <c r="AV4">
-        <v>-0.5634821924857867</v>
+        <v>-0.56348219248578668</v>
       </c>
       <c r="AW4">
-        <v>0.2816646327570494</v>
+        <v>0.28166463275704939</v>
       </c>
       <c r="AX4">
-        <v>-0.0448811793265076</v>
+        <v>-4.4881179326507599E-2</v>
       </c>
       <c r="AY4">
-        <v>-0.3893873371211751</v>
+        <v>-0.38938733712117513</v>
       </c>
       <c r="AZ4">
-        <v>0.3170779310933577</v>
+        <v>0.31707793109335769</v>
       </c>
       <c r="BA4">
-        <v>-0.2250431276530087</v>
+        <v>-0.22504312765300871</v>
       </c>
       <c r="BB4">
-        <v>0.03055618747578643</v>
+        <v>3.055618747578643E-2</v>
       </c>
       <c r="BC4">
-        <v>0.2241378170327314</v>
+        <v>0.22413781703273139</v>
       </c>
       <c r="BD4">
-        <v>0.3119226966722407</v>
+        <v>0.31192269667224071</v>
       </c>
       <c r="BE4">
-        <v>0.136480959403452</v>
+        <v>0.13648095940345201</v>
       </c>
       <c r="BF4">
-        <v>-0.1909463857433203</v>
+        <v>-0.19094638574332029</v>
       </c>
       <c r="BG4">
         <v>-0.1955462100311309</v>
       </c>
     </row>
-    <row r="5" spans="1:59">
-      <c r="A5" s="1">
+    <row r="5" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
         <v>0.1401387082749036</v>
       </c>
       <c r="C5">
-        <v>-0.3761613408754823</v>
+        <v>-0.37616134087548231</v>
       </c>
       <c r="D5">
         <v>-0.4303247797794042</v>
@@ -1102,170 +1377,170 @@
         <v>-1.00671059295632</v>
       </c>
       <c r="F5">
-        <v>0.07940398734776204</v>
+        <v>7.9403987347762037E-2</v>
       </c>
       <c r="G5">
-        <v>-0.2116559796623091</v>
+        <v>-0.21165597966230909</v>
       </c>
       <c r="H5">
-        <v>0.3782628614725361</v>
+        <v>0.37826286147253613</v>
       </c>
       <c r="I5">
-        <v>0.0771331539204848</v>
+        <v>7.7133153920484795E-2</v>
       </c>
       <c r="J5">
-        <v>0.2447863076458794</v>
+        <v>0.24478630764587939</v>
       </c>
       <c r="K5">
-        <v>-0.4234239321918539</v>
+        <v>-0.42342393219185392</v>
       </c>
       <c r="L5">
-        <v>0.4068547758684274</v>
+        <v>0.40685477586842739</v>
       </c>
       <c r="M5">
         <v>-0.2435601264350569</v>
       </c>
       <c r="N5">
-        <v>0.412365870607428</v>
+        <v>0.41236587060742802</v>
       </c>
       <c r="O5">
-        <v>-0.3214774904867694</v>
+        <v>-0.32147749048676938</v>
       </c>
       <c r="P5">
-        <v>0.2651187465170396</v>
+        <v>0.26511874651703959</v>
       </c>
       <c r="Q5">
-        <v>0.4142725944057785</v>
+        <v>0.41427259440577852</v>
       </c>
       <c r="R5">
-        <v>-0.2001385704691626</v>
+        <v>-0.20013857046916261</v>
       </c>
       <c r="S5">
-        <v>-0.01391251483467156</v>
+        <v>-1.391251483467156E-2</v>
       </c>
       <c r="T5">
-        <v>0.2428168437389565</v>
+        <v>0.24281684373895651</v>
       </c>
       <c r="U5">
-        <v>-0.2696644783096053</v>
+        <v>-0.26966447830960533</v>
       </c>
       <c r="V5">
-        <v>0.007172106492149956</v>
+        <v>7.1721064921499563E-3</v>
       </c>
       <c r="W5">
-        <v>0.1632616127029236</v>
+        <v>0.16326161270292361</v>
       </c>
       <c r="X5">
-        <v>-0.01552653664856952</v>
+        <v>-1.552653664856952E-2</v>
       </c>
       <c r="Y5">
-        <v>-0.1309191588023575</v>
+        <v>-0.13091915880235749</v>
       </c>
       <c r="Z5">
-        <v>-0.1833438615122382</v>
+        <v>-0.18334386151223819</v>
       </c>
       <c r="AA5">
-        <v>-0.2656928774430329</v>
+        <v>-0.26569287744303288</v>
       </c>
       <c r="AB5">
-        <v>-0.04083635298673544</v>
+        <v>-4.0836352986735443E-2</v>
       </c>
       <c r="AC5">
-        <v>0.6449191504230677</v>
+        <v>0.64491915042306769</v>
       </c>
       <c r="AD5">
-        <v>0.1384931677503395</v>
+        <v>0.13849316775033951</v>
       </c>
       <c r="AE5">
-        <v>0.2253579529686058</v>
+        <v>0.22535795296860581</v>
       </c>
       <c r="AF5">
-        <v>0.4022511902848265</v>
+        <v>0.40225119028482648</v>
       </c>
       <c r="AG5">
-        <v>0.2893302270842975</v>
+        <v>0.28933022708429751</v>
       </c>
       <c r="AH5">
-        <v>0.01735819306709903</v>
+        <v>1.7358193067099029E-2</v>
       </c>
       <c r="AI5">
-        <v>-0.4492802570155146</v>
+        <v>-0.44928025701551461</v>
       </c>
       <c r="AJ5">
-        <v>0.09755909637479661</v>
+        <v>9.7559096374796608E-2</v>
       </c>
       <c r="AK5">
-        <v>0.03181882345964378</v>
+        <v>3.1818823459643777E-2</v>
       </c>
       <c r="AL5">
         <v>0.3447930945364891</v>
       </c>
       <c r="AM5">
-        <v>-0.2409319412636567</v>
+        <v>-0.24093194126365669</v>
       </c>
       <c r="AN5">
         <v>-0.1520307318605785</v>
       </c>
       <c r="AO5">
-        <v>-0.297974768243525</v>
+        <v>-0.29797476824352498</v>
       </c>
       <c r="AP5">
-        <v>-0.03242594546885145</v>
+        <v>-3.2425945468851448E-2</v>
       </c>
       <c r="AQ5">
-        <v>0.7191231511839963</v>
+        <v>0.71912315118399628</v>
       </c>
       <c r="AR5">
-        <v>0.2674662921681694</v>
+        <v>0.26746629216816942</v>
       </c>
       <c r="AS5">
-        <v>-0.7013408194238498</v>
+        <v>-0.70134081942384985</v>
       </c>
       <c r="AT5">
         <v>-0.1262836932129926</v>
       </c>
       <c r="AU5">
-        <v>-0.214363916358474</v>
+        <v>-0.21436391635847399</v>
       </c>
       <c r="AV5">
-        <v>-0.4692540655149617</v>
+        <v>-0.46925406551496168</v>
       </c>
       <c r="AW5">
-        <v>0.259821055391068</v>
+        <v>0.25982105539106798</v>
       </c>
       <c r="AX5">
-        <v>0.08844126433209305</v>
+        <v>8.8441264332093053E-2</v>
       </c>
       <c r="AY5">
-        <v>-0.3707363325270575</v>
+        <v>-0.37073633252705751</v>
       </c>
       <c r="AZ5">
-        <v>0.46197319369009</v>
+        <v>0.46197319369008999</v>
       </c>
       <c r="BA5">
         <v>-0.110614605836932</v>
       </c>
       <c r="BB5">
-        <v>-0.09074532084699345</v>
+        <v>-9.0745320846993452E-2</v>
       </c>
       <c r="BC5">
-        <v>0.3344426772759898</v>
+        <v>0.33444267727598981</v>
       </c>
       <c r="BD5">
-        <v>0.3291919490126478</v>
+        <v>0.32919194901264781</v>
       </c>
       <c r="BE5">
-        <v>0.09572301854559678</v>
+        <v>9.5723018545596783E-2</v>
       </c>
       <c r="BF5">
-        <v>-0.01264638171982119</v>
+        <v>-1.264638171982119E-2</v>
       </c>
       <c r="BG5">
         <v>-0.18292543679334</v>
       </c>
     </row>
-    <row r="6" spans="1:59">
-      <c r="A6" s="1">
+    <row r="6" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6">
@@ -1278,43 +1553,43 @@
         <v>1.426328213108873</v>
       </c>
       <c r="E6">
-        <v>0.5967042084867568</v>
+        <v>0.59670420848675676</v>
       </c>
       <c r="F6">
-        <v>1.758887780728306</v>
+        <v>1.7588877807283061</v>
       </c>
       <c r="G6">
-        <v>1.028685437188703</v>
+        <v>1.0286854371887031</v>
       </c>
       <c r="H6">
-        <v>1.118231937910151</v>
+        <v>1.1182319379101511</v>
       </c>
       <c r="I6">
         <v>1.394341967414777</v>
       </c>
       <c r="J6">
-        <v>1.707087464422313</v>
+        <v>1.7070874644223131</v>
       </c>
       <c r="K6">
         <v>1.412215255210995</v>
       </c>
       <c r="L6">
-        <v>1.109469270807314</v>
+        <v>1.1094692708073139</v>
       </c>
       <c r="M6">
         <v>0.1811267985911196</v>
       </c>
       <c r="N6">
-        <v>1.460345536898438</v>
+        <v>1.4603455368984379</v>
       </c>
       <c r="O6">
-        <v>1.462838204542075</v>
+        <v>1.4628382045420749</v>
       </c>
       <c r="P6">
-        <v>1.888451700278165</v>
+        <v>1.8884517002781649</v>
       </c>
       <c r="Q6">
-        <v>1.84688022906665</v>
+        <v>1.8468802290666499</v>
       </c>
       <c r="R6">
         <v>1.209426809932145</v>
@@ -1326,13 +1601,13 @@
         <v>1.697399918415857</v>
       </c>
       <c r="U6">
-        <v>1.307241406367278</v>
+        <v>1.3072414063672779</v>
       </c>
       <c r="V6">
-        <v>1.293581853544031</v>
+        <v>1.2935818535440311</v>
       </c>
       <c r="W6">
-        <v>1.51656981058348</v>
+        <v>1.5165698105834799</v>
       </c>
       <c r="X6">
         <v>1.793939864857417</v>
@@ -1347,16 +1622,16 @@
         <v>1.092620457390503</v>
       </c>
       <c r="AB6">
-        <v>0.714365959757067</v>
+        <v>0.71436595975706696</v>
       </c>
       <c r="AC6">
         <v>2.465254497768369</v>
       </c>
       <c r="AD6">
-        <v>1.419045747688162</v>
+        <v>1.4190457476881619</v>
       </c>
       <c r="AE6">
-        <v>1.450599331363689</v>
+        <v>1.4505993313636889</v>
       </c>
       <c r="AF6">
         <v>1.816908623010332</v>
@@ -1368,19 +1643,19 @@
         <v>1.428124874887748</v>
       </c>
       <c r="AI6">
-        <v>0.4321210434541152</v>
+        <v>0.43212104345411517</v>
       </c>
       <c r="AJ6">
-        <v>1.611488789835248</v>
+        <v>1.6114887898352479</v>
       </c>
       <c r="AK6">
-        <v>1.812422362996612</v>
+        <v>1.8124223629966121</v>
       </c>
       <c r="AL6">
-        <v>1.131875203705765</v>
+        <v>1.1318752037057651</v>
       </c>
       <c r="AM6">
-        <v>1.316542720440757</v>
+        <v>1.3165427204407569</v>
       </c>
       <c r="AN6">
         <v>0.8977907345306162</v>
@@ -1389,105 +1664,105 @@
         <v>1.374734162651347</v>
       </c>
       <c r="AP6">
-        <v>1.614649748220392</v>
+        <v>1.6146497482203921</v>
       </c>
       <c r="AQ6">
-        <v>2.03508644648726</v>
+        <v>2.0350864464872598</v>
       </c>
       <c r="AR6">
-        <v>1.69004469450911</v>
+        <v>1.6900446945091101</v>
       </c>
       <c r="AS6">
-        <v>1.062194349211039</v>
+        <v>1.0621943492110391</v>
       </c>
       <c r="AT6">
-        <v>1.223642041662382</v>
+        <v>1.2236420416623821</v>
       </c>
       <c r="AU6">
         <v>0.8884183737687027</v>
       </c>
       <c r="AV6">
-        <v>1.28083832394351</v>
+        <v>1.2808383239435099</v>
       </c>
       <c r="AW6">
         <v>1.323968822968592</v>
       </c>
       <c r="AX6">
-        <v>0.9925274787625331</v>
+        <v>0.99252747876253311</v>
       </c>
       <c r="AY6">
-        <v>0.5259545768113387</v>
+        <v>0.52595457681133873</v>
       </c>
       <c r="AZ6">
-        <v>1.270064220294164</v>
+        <v>1.2700642202941641</v>
       </c>
       <c r="BA6">
-        <v>1.284458650600736</v>
+        <v>1.2844586506007361</v>
       </c>
       <c r="BB6">
         <v>1.375193641186478</v>
       </c>
       <c r="BC6">
-        <v>1.338875926390929</v>
+        <v>1.3388759263909289</v>
       </c>
       <c r="BD6">
-        <v>1.409703732989482</v>
+        <v>1.4097037329894819</v>
       </c>
       <c r="BE6">
         <v>1.116164196894186</v>
       </c>
       <c r="BF6">
-        <v>-0.09028508426335942</v>
+        <v>-9.0285084263359419E-2</v>
       </c>
       <c r="BG6">
-        <v>0.9171514543828143</v>
+        <v>0.91715145438281431</v>
       </c>
     </row>
-    <row r="7" spans="1:59">
-      <c r="A7" s="1">
+    <row r="7" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5418162538490882</v>
+        <v>0.54181625384908816</v>
       </c>
       <c r="C7">
-        <v>0.5822940153191838</v>
+        <v>0.58229401531918379</v>
       </c>
       <c r="D7">
-        <v>0.3654301362859163</v>
+        <v>0.36543013628591631</v>
       </c>
       <c r="E7">
-        <v>-0.2868973583730461</v>
+        <v>-0.28689735837304609</v>
       </c>
       <c r="F7">
-        <v>0.7714543678582692</v>
+        <v>0.77145436785826915</v>
       </c>
       <c r="G7">
-        <v>0.09521617044666071</v>
+        <v>9.5216170446660711E-2</v>
       </c>
       <c r="H7">
-        <v>0.68104781244649</v>
+        <v>0.68104781244649004</v>
       </c>
       <c r="I7">
         <v>0.7823945991114819</v>
       </c>
       <c r="J7">
-        <v>0.7697296605551723</v>
+        <v>0.76972966055517233</v>
       </c>
       <c r="K7">
-        <v>0.5960661025621731</v>
+        <v>0.59606610256217307</v>
       </c>
       <c r="L7">
-        <v>0.9656331454486897</v>
+        <v>0.96563314544868972</v>
       </c>
       <c r="M7">
-        <v>0.07248601381955219</v>
+        <v>7.2486013819552192E-2</v>
       </c>
       <c r="N7">
-        <v>1.02309993113588</v>
+        <v>1.0230999311358799</v>
       </c>
       <c r="O7">
-        <v>0.6621785192122696</v>
+        <v>0.66217851921226956</v>
       </c>
       <c r="P7">
         <v>0.7468746803048314</v>
@@ -1502,106 +1777,106 @@
         <v>0.5851720663871095</v>
       </c>
       <c r="T7">
-        <v>0.6109407332649405</v>
+        <v>0.61094073326494047</v>
       </c>
       <c r="U7">
-        <v>0.6839016769428062</v>
+        <v>0.68390167694280624</v>
       </c>
       <c r="V7">
-        <v>0.689164657564207</v>
+        <v>0.68916465756420697</v>
       </c>
       <c r="W7">
-        <v>0.3799983827818085</v>
+        <v>0.37999838278180847</v>
       </c>
       <c r="X7">
         <v>0.8335760880544173</v>
       </c>
       <c r="Y7">
-        <v>0.5410409344668543</v>
+        <v>0.54104093446685431</v>
       </c>
       <c r="Z7">
         <v>0.4362550692060404</v>
       </c>
       <c r="AA7">
-        <v>0.5570789398573552</v>
+        <v>0.55707893985735524</v>
       </c>
       <c r="AB7">
-        <v>0.3931862513704601</v>
+        <v>0.39318625137046009</v>
       </c>
       <c r="AC7">
         <v>1.030616948833599</v>
       </c>
       <c r="AD7">
-        <v>0.8134499552766042</v>
+        <v>0.81344995527660424</v>
       </c>
       <c r="AE7">
         <v>1.023180247931968</v>
       </c>
       <c r="AF7">
-        <v>0.9233556309180208</v>
+        <v>0.92335563091802075</v>
       </c>
       <c r="AG7">
-        <v>0.4757821918584264</v>
+        <v>0.47578219185842641</v>
       </c>
       <c r="AH7">
-        <v>0.6956052434769293</v>
+        <v>0.69560524347692931</v>
       </c>
       <c r="AI7">
-        <v>0.0009239715930353262</v>
+        <v>9.2397159303532624E-4</v>
       </c>
       <c r="AJ7">
-        <v>0.9038898387940242</v>
+        <v>0.90388983879402418</v>
       </c>
       <c r="AK7">
-        <v>0.8314582390877056</v>
+        <v>0.83145823908770555</v>
       </c>
       <c r="AL7">
-        <v>0.7444737200545476</v>
+        <v>0.74447372005454759</v>
       </c>
       <c r="AM7">
         <v>0.4592664701584791</v>
       </c>
       <c r="AN7">
-        <v>-0.1464964834307609</v>
+        <v>-0.14649648343076091</v>
       </c>
       <c r="AO7">
-        <v>0.5545573949111735</v>
+        <v>0.55455739491117351</v>
       </c>
       <c r="AP7">
-        <v>0.627695020963</v>
+        <v>0.62769502096300001</v>
       </c>
       <c r="AQ7">
         <v>1.190342422880438</v>
       </c>
       <c r="AR7">
-        <v>0.8285018106600154</v>
+        <v>0.82850181066001538</v>
       </c>
       <c r="AS7">
-        <v>0.30967722683671</v>
+        <v>0.30967722683671001</v>
       </c>
       <c r="AT7">
-        <v>0.5981727574340026</v>
+        <v>0.59817275743400256</v>
       </c>
       <c r="AU7">
-        <v>0.1789192632798663</v>
+        <v>0.17891926327986629</v>
       </c>
       <c r="AV7">
-        <v>0.3779575918715092</v>
+        <v>0.37795759187150918</v>
       </c>
       <c r="AW7">
-        <v>0.6358349376100417</v>
+        <v>0.63583493761004173</v>
       </c>
       <c r="AX7">
-        <v>0.2025050935994201</v>
+        <v>0.20250509359942009</v>
       </c>
       <c r="AY7">
-        <v>0.3706289943542395</v>
+        <v>0.37062899435423952</v>
       </c>
       <c r="AZ7">
-        <v>0.6158286101163375</v>
+        <v>0.61582861011633749</v>
       </c>
       <c r="BA7">
-        <v>0.6557996149261912</v>
+        <v>0.65579961492619121</v>
       </c>
       <c r="BB7">
         <v>0.4293897821557669</v>
@@ -1613,36 +1888,36 @@
         <v>0.7711580930456583</v>
       </c>
       <c r="BE7">
-        <v>0.5641839826275675</v>
+        <v>0.56418398262756753</v>
       </c>
       <c r="BF7">
-        <v>-0.07304987172322991</v>
+        <v>-7.3049871723229909E-2</v>
       </c>
       <c r="BG7">
-        <v>0.5138451007469222</v>
+        <v>0.51384510074692225</v>
       </c>
     </row>
-    <row r="8" spans="1:59">
-      <c r="A8" s="1">
+    <row r="8" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3837360999741301</v>
+        <v>0.38373609997413011</v>
       </c>
       <c r="C8">
-        <v>0.1774186842993956</v>
+        <v>0.17741868429939561</v>
       </c>
       <c r="D8">
         <v>-0.130463722804604</v>
       </c>
       <c r="E8">
-        <v>-0.6974973227603277</v>
+        <v>-0.69749732276032772</v>
       </c>
       <c r="F8">
-        <v>0.4169061256412129</v>
+        <v>0.41690612564121288</v>
       </c>
       <c r="G8">
-        <v>-0.2665258079706228</v>
+        <v>-0.26652580797062281</v>
       </c>
       <c r="H8">
         <v>0.2330297774161488</v>
@@ -1651,28 +1926,28 @@
         <v>0.6375297391872019</v>
       </c>
       <c r="J8">
-        <v>0.3424534455476215</v>
+        <v>0.34245344554762153</v>
       </c>
       <c r="K8">
-        <v>0.04906293511163693</v>
+        <v>4.9062935111636931E-2</v>
       </c>
       <c r="L8">
         <v>0.1697840104534</v>
       </c>
       <c r="M8">
-        <v>-0.1408575144813204</v>
+        <v>-0.14085751448132039</v>
       </c>
       <c r="N8">
-        <v>0.5235877140715355</v>
+        <v>0.52358771407153548</v>
       </c>
       <c r="O8">
-        <v>0.609573787814526</v>
+        <v>0.60957378781452598</v>
       </c>
       <c r="P8">
-        <v>0.8442173963774676</v>
+        <v>0.84421739637746762</v>
       </c>
       <c r="Q8">
-        <v>0.6185343598627858</v>
+        <v>0.61853435986278582</v>
       </c>
       <c r="R8">
         <v>0.1188724291648032</v>
@@ -1687,52 +1962,52 @@
         <v>0.8173527090467203</v>
       </c>
       <c r="V8">
-        <v>0.4627832331655271</v>
+        <v>0.46278323316552711</v>
       </c>
       <c r="W8">
-        <v>0.6244135317959114</v>
+        <v>0.62441353179591141</v>
       </c>
       <c r="X8">
-        <v>0.4855494667699904</v>
+        <v>0.48554946676999039</v>
       </c>
       <c r="Y8">
-        <v>0.5078631568539909</v>
+        <v>0.50786315685399086</v>
       </c>
       <c r="Z8">
-        <v>0.3059482812576065</v>
+        <v>0.30594828125760648</v>
       </c>
       <c r="AA8">
         <v>0.1144521780345084</v>
       </c>
       <c r="AB8">
-        <v>-0.4764922601903214</v>
+        <v>-0.47649226019032143</v>
       </c>
       <c r="AC8">
         <v>1.102916647479447</v>
       </c>
       <c r="AD8">
-        <v>0.491221928203408</v>
+        <v>0.49122192820340799</v>
       </c>
       <c r="AE8">
-        <v>0.6005318273391814</v>
+        <v>0.60053182733918142</v>
       </c>
       <c r="AF8">
-        <v>1.137580976580253</v>
+        <v>1.1375809765802529</v>
       </c>
       <c r="AG8">
-        <v>0.3312727424761815</v>
+        <v>0.33127274247618149</v>
       </c>
       <c r="AH8">
-        <v>0.5157431269464431</v>
+        <v>0.51574312694644309</v>
       </c>
       <c r="AI8">
-        <v>-0.5905855388896775</v>
+        <v>-0.59058553888967746</v>
       </c>
       <c r="AJ8">
-        <v>0.5479207355424779</v>
+        <v>0.54792073554247789</v>
       </c>
       <c r="AK8">
-        <v>0.3971799017487398</v>
+        <v>0.39717990174873979</v>
       </c>
       <c r="AL8">
         <v>-0.1727745582493892</v>
@@ -1741,132 +2016,132 @@
         <v>0.1070681577130406</v>
       </c>
       <c r="AN8">
-        <v>0.0016286330989901</v>
+        <v>1.6286330989901E-3</v>
       </c>
       <c r="AO8">
-        <v>0.7082639146892399</v>
+        <v>0.70826391468923988</v>
       </c>
       <c r="AP8">
-        <v>0.3998143543833149</v>
+        <v>0.39981435438331492</v>
       </c>
       <c r="AQ8">
         <v>1.130072480377373</v>
       </c>
       <c r="AR8">
-        <v>0.7256357177538499</v>
+        <v>0.72563571775384994</v>
       </c>
       <c r="AS8">
-        <v>0.4909491622580333</v>
+        <v>0.49094916225803331</v>
       </c>
       <c r="AT8">
         <v>0.1088482908806775</v>
       </c>
       <c r="AU8">
-        <v>-0.4551957342162246</v>
+        <v>-0.45519573421622461</v>
       </c>
       <c r="AV8">
-        <v>0.3956170646759157</v>
+        <v>0.39561706467591568</v>
       </c>
       <c r="AW8">
-        <v>0.3361542415361969</v>
+        <v>0.33615424153619688</v>
       </c>
       <c r="AX8">
-        <v>0.4935857110324635</v>
+        <v>0.49358571103246351</v>
       </c>
       <c r="AY8">
-        <v>-0.000146239223209993</v>
+        <v>-1.4623922320999299E-4</v>
       </c>
       <c r="AZ8">
-        <v>0.3826260973249727</v>
+        <v>0.38262609732497271</v>
       </c>
       <c r="BA8">
-        <v>0.2571543658312567</v>
+        <v>0.25715436583125673</v>
       </c>
       <c r="BB8">
-        <v>0.2576190567250172</v>
+        <v>0.25761905672501723</v>
       </c>
       <c r="BC8">
-        <v>0.3269779202622519</v>
+        <v>0.32697792026225192</v>
       </c>
       <c r="BD8">
-        <v>0.1936874402988585</v>
+        <v>0.19368744029885851</v>
       </c>
       <c r="BE8">
-        <v>-0.1436505790945916</v>
+        <v>-0.14365057909459161</v>
       </c>
       <c r="BF8">
         <v>-0.380812288166679</v>
       </c>
       <c r="BG8">
-        <v>0.223801645047926</v>
+        <v>0.22380164504792599</v>
       </c>
     </row>
-    <row r="9" spans="1:59">
-      <c r="A9" s="1">
+    <row r="9" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.47545083768425</v>
+        <v>0.47545083768425001</v>
       </c>
       <c r="C9">
-        <v>-0.05548368408618107</v>
+        <v>-5.5483684086181068E-2</v>
       </c>
       <c r="D9">
-        <v>-0.6853855688439165</v>
+        <v>-0.68538556884391655</v>
       </c>
       <c r="E9">
-        <v>0.2589089271054889</v>
+        <v>0.25890892710548891</v>
       </c>
       <c r="F9">
-        <v>0.107778212785211</v>
+        <v>0.10777821278521101</v>
       </c>
       <c r="G9">
-        <v>-0.7952433193651542</v>
+        <v>-0.79524331936515424</v>
       </c>
       <c r="H9">
-        <v>0.5354344096215672</v>
+        <v>0.53543440962156719</v>
       </c>
       <c r="I9">
         <v>0.3000894172023123</v>
       </c>
       <c r="J9">
-        <v>0.4590242804908127</v>
+        <v>0.45902428049081268</v>
       </c>
       <c r="K9">
-        <v>0.4393997447804772</v>
+        <v>0.43939974478047722</v>
       </c>
       <c r="L9">
         <v>0.112489286132317</v>
       </c>
       <c r="M9">
-        <v>-0.1446936090783356</v>
+        <v>-0.14469360907833559</v>
       </c>
       <c r="N9">
         <v>0.3118155231372573</v>
       </c>
       <c r="O9">
-        <v>-0.2496836176218797</v>
+        <v>-0.24968361762187971</v>
       </c>
       <c r="P9">
-        <v>0.15513692491145</v>
+        <v>0.15513692491145001</v>
       </c>
       <c r="Q9">
-        <v>0.3798751355062792</v>
+        <v>0.37987513550627922</v>
       </c>
       <c r="R9">
         <v>0.1124699086855564</v>
       </c>
       <c r="S9">
-        <v>-0.07961065816475064</v>
+        <v>-7.9610658164750644E-2</v>
       </c>
       <c r="T9">
-        <v>0.3179243482979104</v>
+        <v>0.31792434829791039</v>
       </c>
       <c r="U9">
-        <v>0.1835945498808585</v>
+        <v>0.18359454988085849</v>
       </c>
       <c r="V9">
-        <v>0.557149789562993</v>
+        <v>0.55714978956299299</v>
       </c>
       <c r="W9">
         <v>-0.1023513946503513</v>
@@ -1875,79 +2150,79 @@
         <v>0.1631990479498569</v>
       </c>
       <c r="Y9">
-        <v>0.3359352277927852</v>
+        <v>0.33593522779278517</v>
       </c>
       <c r="Z9">
-        <v>-0.08953283851947366</v>
+        <v>-8.9532838519473662E-2</v>
       </c>
       <c r="AA9">
-        <v>-0.002007551112861142</v>
+        <v>-2.0075511128611421E-3</v>
       </c>
       <c r="AB9">
-        <v>0.08495559892769004</v>
+        <v>8.4955598927690043E-2</v>
       </c>
       <c r="AC9">
-        <v>0.8331226499257762</v>
+        <v>0.83312264992577623</v>
       </c>
       <c r="AD9">
         <v>0.1843616756536724</v>
       </c>
       <c r="AE9">
-        <v>-0.01952247028427947</v>
+        <v>-1.9522470284279472E-2</v>
       </c>
       <c r="AF9">
-        <v>0.3305799792294827</v>
+        <v>0.33057997922948268</v>
       </c>
       <c r="AG9">
-        <v>0.08972327491505631</v>
+        <v>8.9723274915056314E-2</v>
       </c>
       <c r="AH9">
-        <v>-0.005104480420399593</v>
+        <v>-5.1044804203995934E-3</v>
       </c>
       <c r="AI9">
-        <v>-0.2470688986534381</v>
+        <v>-0.24706889865343809</v>
       </c>
       <c r="AJ9">
-        <v>0.3982639765041299</v>
+        <v>0.39826397650412992</v>
       </c>
       <c r="AK9">
-        <v>0.4141446751358825</v>
+        <v>0.41414467513588249</v>
       </c>
       <c r="AL9">
-        <v>0.2861948827631581</v>
+        <v>0.28619488276315808</v>
       </c>
       <c r="AM9">
-        <v>-0.1532495669778801</v>
+        <v>-0.15324956697788009</v>
       </c>
       <c r="AN9">
         <v>-1.016665302563228</v>
       </c>
       <c r="AO9">
-        <v>-0.02795534541618202</v>
+        <v>-2.7955345416182019E-2</v>
       </c>
       <c r="AP9">
-        <v>0.4333742131042521</v>
+        <v>0.43337421310425212</v>
       </c>
       <c r="AQ9">
         <v>0.1878343890547291</v>
       </c>
       <c r="AR9">
-        <v>0.1635993841443069</v>
+        <v>0.16359938414430689</v>
       </c>
       <c r="AS9">
-        <v>-0.4109846333622852</v>
+        <v>-0.41098463336228519</v>
       </c>
       <c r="AT9">
-        <v>0.2882212927252347</v>
+        <v>0.28822129272523472</v>
       </c>
       <c r="AU9">
-        <v>0.09525947992933034</v>
+        <v>9.5259479929330343E-2</v>
       </c>
       <c r="AV9">
-        <v>-0.08879526777334762</v>
+        <v>-8.8795267773347619E-2</v>
       </c>
       <c r="AW9">
-        <v>-0.4384306141845943</v>
+        <v>-0.43843061418459428</v>
       </c>
       <c r="AX9">
         <v>0.1448158425382228</v>
@@ -1956,19 +2231,19 @@
         <v>-0.1185810698722871</v>
       </c>
       <c r="AZ9">
-        <v>0.02623879737575237</v>
+        <v>2.6238797375752371E-2</v>
       </c>
       <c r="BA9">
-        <v>0.0833202426899398</v>
+        <v>8.3320242689939802E-2</v>
       </c>
       <c r="BB9">
-        <v>0.06010915750841488</v>
+        <v>6.0109157508414883E-2</v>
       </c>
       <c r="BC9">
-        <v>0.1804515105865026</v>
+        <v>0.18045151058650261</v>
       </c>
       <c r="BD9">
-        <v>0.3914361325467229</v>
+        <v>0.39143613254672288</v>
       </c>
       <c r="BE9">
         <v>0.4685078723078252</v>
@@ -1977,48 +2252,48 @@
         <v>-0.1160019097502953</v>
       </c>
       <c r="BG9">
-        <v>-0.2645987124959271</v>
+        <v>-0.26459871249592709</v>
       </c>
     </row>
-    <row r="10" spans="1:59">
-      <c r="A10" s="1">
+    <row r="10" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4808221899311808</v>
+        <v>0.48082218993118081</v>
       </c>
       <c r="C10">
-        <v>-0.7141343685059469</v>
+        <v>-0.71413436850594691</v>
       </c>
       <c r="D10">
-        <v>-0.4467853263233789</v>
+        <v>-0.44678532632337892</v>
       </c>
       <c r="E10">
-        <v>-0.4396775587786128</v>
+        <v>-0.43967755877861281</v>
       </c>
       <c r="F10">
-        <v>-0.3475860068683532</v>
+        <v>-0.34758600686835323</v>
       </c>
       <c r="G10">
-        <v>0.0198302746412041</v>
+        <v>1.9830274641204099E-2</v>
       </c>
       <c r="H10">
-        <v>0.07344546857223619</v>
+        <v>7.3445468572236189E-2</v>
       </c>
       <c r="I10">
-        <v>-0.4993523823345019</v>
+        <v>-0.49935238233450191</v>
       </c>
       <c r="J10">
-        <v>0.2556040062592255</v>
+        <v>0.25560400625922552</v>
       </c>
       <c r="K10">
-        <v>-0.9901142271016045</v>
+        <v>-0.99011422710160446</v>
       </c>
       <c r="L10">
-        <v>0.2494557576690531</v>
+        <v>0.24945575766905309</v>
       </c>
       <c r="M10">
-        <v>-0.183343288398169</v>
+        <v>-0.18334328839816899</v>
       </c>
       <c r="N10">
         <v>0.5121095898601139</v>
@@ -2027,228 +2302,228 @@
         <v>-0.2769217995060928</v>
       </c>
       <c r="P10">
-        <v>0.1009759082457165</v>
+        <v>0.10097590824571651</v>
       </c>
       <c r="Q10">
-        <v>-0.1464928108876918</v>
+        <v>-0.14649281088769181</v>
       </c>
       <c r="R10">
-        <v>-0.5647648081698362</v>
+        <v>-0.56476480816983621</v>
       </c>
       <c r="S10">
-        <v>-0.2013863808464103</v>
+        <v>-0.20138638084641031</v>
       </c>
       <c r="T10">
-        <v>-0.2291134960381604</v>
+        <v>-0.22911349603816039</v>
       </c>
       <c r="U10">
-        <v>-0.1630893927340706</v>
+        <v>-0.16308939273407061</v>
       </c>
       <c r="V10">
-        <v>0.3739591314365923</v>
+        <v>0.37395913143659232</v>
       </c>
       <c r="W10">
-        <v>-0.007015242015445328</v>
+        <v>-7.0152420154453278E-3</v>
       </c>
       <c r="X10">
-        <v>-0.01589596363027504</v>
+        <v>-1.589596363027504E-2</v>
       </c>
       <c r="Y10">
-        <v>-0.6344087435998669</v>
+        <v>-0.63440874359986688</v>
       </c>
       <c r="Z10">
-        <v>-0.567387685278308</v>
+        <v>-0.56738768527830796</v>
       </c>
       <c r="AA10">
-        <v>-0.6069229323282029</v>
+        <v>-0.60692293232820294</v>
       </c>
       <c r="AB10">
-        <v>-0.151450680408263</v>
+        <v>-0.15145068040826301</v>
       </c>
       <c r="AC10">
-        <v>0.5869147962714157</v>
+        <v>0.58691479627141574</v>
       </c>
       <c r="AD10">
-        <v>0.1918052274520042</v>
+        <v>0.19180522745200421</v>
       </c>
       <c r="AE10">
-        <v>0.1800311502120822</v>
+        <v>0.18003115021208221</v>
       </c>
       <c r="AF10">
-        <v>0.1262941644300835</v>
+        <v>0.12629416443008351</v>
       </c>
       <c r="AG10">
-        <v>-0.06971426449229794</v>
+        <v>-6.9714264492297937E-2</v>
       </c>
       <c r="AH10">
-        <v>-0.4853672841140942</v>
+        <v>-0.48536728411409419</v>
       </c>
       <c r="AI10">
-        <v>-0.06292688932364214</v>
+        <v>-6.2926889323642141E-2</v>
       </c>
       <c r="AJ10">
         <v>-0.3443446010275929</v>
       </c>
       <c r="AK10">
-        <v>-0.6678753239319355</v>
+        <v>-0.66787532393193549</v>
       </c>
       <c r="AL10">
-        <v>-0.06844757064362311</v>
+        <v>-6.8447570643623112E-2</v>
       </c>
       <c r="AM10">
-        <v>-0.8269267208178788</v>
+        <v>-0.82692672081787877</v>
       </c>
       <c r="AN10">
-        <v>-0.2109051310996893</v>
+        <v>-0.21090513109968931</v>
       </c>
       <c r="AO10">
-        <v>-0.6781234336507508</v>
+        <v>-0.67812343365075078</v>
       </c>
       <c r="AP10">
-        <v>-0.4035347953661348</v>
+        <v>-0.40353479536613479</v>
       </c>
       <c r="AQ10">
-        <v>0.6343300104632922</v>
+        <v>0.63433001046329218</v>
       </c>
       <c r="AR10">
-        <v>-0.06924383085825069</v>
+        <v>-6.9243830858250685E-2</v>
       </c>
       <c r="AS10">
         <v>-1.013084191316389</v>
       </c>
       <c r="AT10">
-        <v>-0.1764429937478849</v>
+        <v>-0.17644299374788491</v>
       </c>
       <c r="AU10">
-        <v>0.06566391488154076</v>
+        <v>6.5663914881540761E-2</v>
       </c>
       <c r="AV10">
-        <v>-0.1644538721108902</v>
+        <v>-0.16445387211089019</v>
       </c>
       <c r="AW10">
-        <v>0.07757442090238942</v>
+        <v>7.7574420902389418E-2</v>
       </c>
       <c r="AX10">
-        <v>0.2956707636707667</v>
+        <v>0.29567076367076672</v>
       </c>
       <c r="AY10">
-        <v>0.2727132094469075</v>
+        <v>0.27271320944690752</v>
       </c>
       <c r="AZ10">
         <v>0.3642629150794493</v>
       </c>
       <c r="BA10">
-        <v>-0.27381864708472</v>
+        <v>-0.27381864708471998</v>
       </c>
       <c r="BB10">
-        <v>-0.6202424460242574</v>
+        <v>-0.62024244602425738</v>
       </c>
       <c r="BC10">
-        <v>-0.01405561718489319</v>
+        <v>-1.405561718489319E-2</v>
       </c>
       <c r="BD10">
-        <v>-0.5435815355282114</v>
+        <v>-0.54358153552821142</v>
       </c>
       <c r="BE10">
-        <v>-0.1283580703310387</v>
+        <v>-0.12835807033103869</v>
       </c>
       <c r="BF10">
         <v>0.1267620779871971</v>
       </c>
       <c r="BG10">
-        <v>-0.3993295331098048</v>
+        <v>-0.39932953310980479</v>
       </c>
     </row>
-    <row r="11" spans="1:59">
-      <c r="A11" s="1">
+    <row r="11" spans="1:59" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.2107976145972267</v>
+        <v>0.21079761459722671</v>
       </c>
       <c r="C11">
-        <v>0.3363436959496872</v>
+        <v>0.33634369594968722</v>
       </c>
       <c r="D11">
-        <v>0.3750582158337099</v>
+        <v>0.37505821583370991</v>
       </c>
       <c r="E11">
-        <v>0.5616904593597749</v>
+        <v>0.56169045935977491</v>
       </c>
       <c r="F11">
-        <v>0.5777955474818627</v>
+        <v>0.57779554748186268</v>
       </c>
       <c r="G11">
-        <v>0.7066289266807352</v>
+        <v>0.70662892668073518</v>
       </c>
       <c r="H11">
-        <v>0.5863754308974305</v>
+        <v>0.58637543089743049</v>
       </c>
       <c r="I11">
-        <v>0.8341950758780743</v>
+        <v>0.83419507587807429</v>
       </c>
       <c r="J11">
-        <v>0.5153584106046256</v>
+        <v>0.51535841060462562</v>
       </c>
       <c r="K11">
-        <v>0.4116610150734084</v>
+        <v>0.41166101507340841</v>
       </c>
       <c r="L11">
         <v>0.8607309589454516</v>
       </c>
       <c r="M11">
-        <v>0.2582840924017661</v>
+        <v>0.25828409240176609</v>
       </c>
       <c r="N11">
-        <v>0.2805216324279642</v>
+        <v>0.28052163242796418</v>
       </c>
       <c r="O11">
-        <v>0.9063207328725754</v>
+        <v>0.90632073287257542</v>
       </c>
       <c r="P11">
-        <v>0.7503758203449871</v>
+        <v>0.75037582034498707</v>
       </c>
       <c r="Q11">
-        <v>0.8521176047614273</v>
+        <v>0.85211760476142728</v>
       </c>
       <c r="R11">
-        <v>0.3251661303709241</v>
+        <v>0.32516613037092412</v>
       </c>
       <c r="S11">
-        <v>0.366412950494368</v>
+        <v>0.36641295049436801</v>
       </c>
       <c r="T11">
-        <v>1.020053707723038</v>
+        <v>1.0200537077230381</v>
       </c>
       <c r="U11">
-        <v>0.3989824676037617</v>
+        <v>0.39898246760376171</v>
       </c>
       <c r="V11">
-        <v>0.7349395469120256</v>
+        <v>0.73493954691202557</v>
       </c>
       <c r="W11">
-        <v>0.3597599251574307</v>
+        <v>0.35975992515743072</v>
       </c>
       <c r="X11">
-        <v>0.6340438428253318</v>
+        <v>0.63404384282533177</v>
       </c>
       <c r="Y11">
-        <v>0.7149546781563424</v>
+        <v>0.71495467815634239</v>
       </c>
       <c r="Z11">
-        <v>0.3261579248775266</v>
+        <v>0.32615792487752659</v>
       </c>
       <c r="AA11">
-        <v>-0.03563986427121098</v>
+        <v>-3.5639864271210978E-2</v>
       </c>
       <c r="AB11">
-        <v>0.1686156608484737</v>
+        <v>0.16861566084847371</v>
       </c>
       <c r="AC11">
-        <v>0.7329365200849401</v>
+        <v>0.73293652008494015</v>
       </c>
       <c r="AD11">
-        <v>-0.2036997312740172</v>
+        <v>-0.20369973127401719</v>
       </c>
       <c r="AE11">
         <v>1.196266965114491</v>
@@ -2257,85 +2532,85 @@
         <v>0.5127634266918083</v>
       </c>
       <c r="AG11">
-        <v>0.3132641622999915</v>
+        <v>0.31326416229999149</v>
       </c>
       <c r="AH11">
-        <v>0.597438823501907</v>
+        <v>0.59743882350190702</v>
       </c>
       <c r="AI11">
-        <v>-0.1639764256893217</v>
+        <v>-0.16397642568932169</v>
       </c>
       <c r="AJ11">
-        <v>0.693643125712927</v>
+        <v>0.69364312571292697</v>
       </c>
       <c r="AK11">
-        <v>0.6265234729387275</v>
+        <v>0.62652347293872745</v>
       </c>
       <c r="AL11">
         <v>0.4666948815372679</v>
       </c>
       <c r="AM11">
-        <v>0.2491249807713375</v>
+        <v>0.24912498077133749</v>
       </c>
       <c r="AN11">
-        <v>0.7813454216111667</v>
+        <v>0.78134542161116671</v>
       </c>
       <c r="AO11">
-        <v>0.6427817743957432</v>
+        <v>0.64278177439574324</v>
       </c>
       <c r="AP11">
         <v>0.7553292142496475</v>
       </c>
       <c r="AQ11">
-        <v>1.005271094974122</v>
+        <v>1.0052710949741219</v>
       </c>
       <c r="AR11">
-        <v>0.5792892261864082</v>
+        <v>0.57928922618640821</v>
       </c>
       <c r="AS11">
         <v>0.4949790694430054</v>
       </c>
       <c r="AT11">
-        <v>0.47434628760951</v>
+        <v>0.47434628760950998</v>
       </c>
       <c r="AU11">
-        <v>0.04088361365152528</v>
+        <v>4.0883613651525277E-2</v>
       </c>
       <c r="AV11">
-        <v>-0.368300599820569</v>
+        <v>-0.36830059982056901</v>
       </c>
       <c r="AW11">
-        <v>0.6207897995775078</v>
+        <v>0.62078979957750779</v>
       </c>
       <c r="AX11">
-        <v>0.2717663967624284</v>
+        <v>0.27176639676242842</v>
       </c>
       <c r="AY11">
         <v>0.2053608467700746</v>
       </c>
       <c r="AZ11">
-        <v>1.005317610673729</v>
+        <v>1.0053176106737289</v>
       </c>
       <c r="BA11">
-        <v>0.7506496593549025</v>
+        <v>0.75064965935490247</v>
       </c>
       <c r="BB11">
-        <v>0.07833097977691188</v>
+        <v>7.8330979776911877E-2</v>
       </c>
       <c r="BC11">
-        <v>0.8915541321451479</v>
+        <v>0.89155413214514789</v>
       </c>
       <c r="BD11">
-        <v>0.5362669790360428</v>
+        <v>0.53626697903604281</v>
       </c>
       <c r="BE11">
-        <v>1.103720611296445</v>
+        <v>1.1037206112964451</v>
       </c>
       <c r="BF11">
-        <v>0.05407980981469995</v>
+        <v>5.4079809814699953E-2</v>
       </c>
       <c r="BG11">
-        <v>0.4236360637142358</v>
+        <v>0.42363606371423579</v>
       </c>
     </row>
   </sheetData>
